--- a/xlsx/七年战争_intext.xlsx
+++ b/xlsx/七年战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <t>七年战争</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_七年战争</t>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_七年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%98%AD%E8%A5%BF</t>
   </si>
   <si>
-    <t>新法蘭西</t>
+    <t>新法兰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>普鲁士王國</t>
+    <t>普鲁士王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛王國</t>
+    <t>大不列颠王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%BA%E5%A8%81_(%E5%9C%B0%E5%8C%BA)</t>
@@ -125,43 +125,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E6%B4%9B%E9%AD%81%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>易洛魁聯盟</t>
+    <t>易洛魁联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙王國</t>
+    <t>葡萄牙王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>不倫瑞克</t>
+    <t>不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A3%AE-%E5%8D%A1%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>黑森-卡塞爾</t>
+    <t>黑森-卡塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E5%90%9B%E4%B8%BB%E5%9C%8B</t>
   </si>
   <si>
-    <t>哈布斯堡君主國</t>
+    <t>哈布斯堡君主国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西王國</t>
+    <t>法兰西王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -173,43 +173,40 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>薩克森</t>
+    <t>萨克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>那不勒斯王國</t>
+    <t>那不勒斯王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%81%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>薩丁尼亞王國</t>
+    <t>萨丁尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>七年戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%B8%83%E8%A5%BF%E8%8C%A8%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>羅布西茨戰役</t>
+    <t>罗布西茨战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>布拉格戰役</t>
+    <t>布拉格战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%94%BB%E5%9F%8E</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>科林戰役</t>
+    <t>科林战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%80%B6%E6%A0%BC%E5%B0%94%E6%96%AF%E5%A4%9A%E5%A4%AB%E6%88%98%E5%BD%B9</t>
@@ -233,31 +230,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E5%B7%B4%E8%B5%AB%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>羅斯巴赫會戰</t>
+    <t>罗斯巴赫会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E4%BC%8A%E6%BB%95%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>洛伊滕會戰</t>
+    <t>洛伊滕会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B9%E6%81%A9%E9%81%93%E5%A4%AB%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>曹恩道夫戰役</t>
+    <t>曹恩道夫战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%85%8B%E9%BD%8A%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>霍克齊戰役</t>
+    <t>霍克齐战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%8B%92%E6%96%AF%E9%81%93%E5%A4%AB%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>庫勒斯道夫戰役</t>
+    <t>库勒斯道夫战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%90%84%E6%96%AF%E6%B5%B7%E6%88%98</t>
@@ -275,19 +272,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%A0%BC%E5%B0%BC%E8%8C%A8%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>李格尼茨戰役</t>
+    <t>李格尼茨战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%88%BE%E9%AB%98%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>托爾高戰役</t>
+    <t>托尔高战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%85%8B%E6%96%BD%E9%81%93%E5%A4%AB%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>博克施道夫戰役</t>
+    <t>博克施道夫战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
@@ -299,31 +296,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B-%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>法國-印第安戰爭</t>
+    <t>法国-印第安战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>波美拉尼亞</t>
+    <t>波美拉尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%82%A3%E6%8F%90%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -335,25 +329,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第三次西里西亞戰爭</t>
+    <t>第三次西里西亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%88%97%E5%BC%B7</t>
   </si>
   <si>
-    <t>歐洲列強</t>
+    <t>欧洲列强</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -365,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%8E%8B%E4%BD%8D%E7%B9%BC%E6%89%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>奧地利王位繼承戰爭</t>
+    <t>奥地利王位继承战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%9D%A9%E5%91%BD</t>
@@ -407,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E5%9F%8E%E6%88%B0</t>
   </si>
   <si>
-    <t>攻城戰</t>
+    <t>攻城战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E6%88%B0</t>
   </si>
   <si>
-    <t>野戰</t>
+    <t>野战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
+    <t>塞内加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%E5%A4%A7%E5%B8%9D</t>
@@ -443,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94</t>
   </si>
   <si>
-    <t>佛羅里達</t>
+    <t>佛罗里达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -461,31 +455,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>世界大戰</t>
+    <t>世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>八十年戰爭</t>
+    <t>八十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%8E%8B%E4%BD%8D%E7%B9%BC%E6%89%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>西班牙王位繼承戰爭</t>
+    <t>西班牙王位继承战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>拿破崙戰爭</t>
+    <t>拿破崙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%99%BE%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>普魯士國王</t>
+    <t>普鲁士国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%E4%BA%8C%E4%B8%96</t>
@@ -509,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>西里西亞省</t>
+    <t>西里西亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E5%A9%AD%C2%B7%E7%89%B9%E8%95%BE%E8%A5%BF%E5%A9%AD</t>
   </si>
   <si>
-    <t>瑪麗婭·特蕾西婭</t>
+    <t>玛丽娅·特蕾西娅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%BA%9A%E7%90%9B%E5%92%8C%E7%BA%A6</t>
@@ -527,9 +521,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E5%A8%85%C2%B7%E7%89%B9%E8%95%BE%E8%A5%BF%E5%A8%85</t>
   </si>
   <si>
-    <t>玛丽娅·特蕾西娅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
@@ -539,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞</t>
+    <t>宾夕法尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E4%B8%BD%E8%90%A8%E7%BB%B4%E5%A1%94%C2%B7%E5%BD%BC%E5%BE%97%E7%BD%97%E8%8A%99%E5%A8%9C</t>
@@ -563,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>卡塞爾</t>
+    <t>卡塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>布倫瑞克</t>
+    <t>布伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97</t>
@@ -581,19 +572,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國海軍</t>
+    <t>英国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>海外領地</t>
+    <t>海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%B8%83%E8%A5%BF%E8%8C%A8%E4%BC%9A%E6%88%98</t>
@@ -623,9 +614,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>萨克森</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9A</t>
   </si>
   <si>
@@ -635,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%8B%89%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>摩拉維亞</t>
+    <t>摩拉维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%96%AF%C2%B7%E5%86%AF%C2%B7%E5%88%97%E7%93%A6%E5%B0%94%E5%BE%B7</t>
@@ -677,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E8%A5%BF%E7%B1%B3%E9%80%A3%C2%B7%E5%B0%A4%E5%88%A9%E8%A5%BF%E6%96%AF%C2%B7%E5%B8%83%E5%8B%9E%E6%81%A9</t>
   </si>
   <si>
-    <t>馬克西米連·尤利西斯·布勞恩</t>
+    <t>马克西米连·尤利西斯·布劳恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%B0%94%E7%BA%B3</t>
@@ -701,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭共和國</t>
+    <t>荷兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9A%E7%8E%8B%E5%9B%BD</t>
@@ -719,21 +707,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%A5%A7%E6%B3%A2%E5%BE%B7%C2%B7%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E9%A6%AE%C2%B7%E9%81%93%E6%81%A9</t>
   </si>
   <si>
-    <t>利奧波德·約瑟夫·馮·道恩</t>
+    <t>利奥波德·约瑟夫·冯·道恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AE%C2%B7%E9%BD%8A%E9%A8%B0</t>
   </si>
   <si>
-    <t>漢斯·恩斯特·卡爾·馮·齊騰</t>
+    <t>汉斯·恩斯特·卡尔·冯·齐腾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%88%98%E5%BD%B9</t>
   </si>
   <si>
-    <t>科林战役</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC</t>
   </si>
   <si>
@@ -743,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A2%85%E7%88%BE</t>
   </si>
   <si>
-    <t>梅梅爾</t>
+    <t>梅梅尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%99%AE%E9%B2%81%E5%A3%AB</t>
@@ -755,21 +740,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
-    <t>波美拉尼亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>德意志地區</t>
+    <t>德意志地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B7%B4%E8%B5%AB%E4%BC%9A%E6%88%98</t>
   </si>
   <si>
-    <t>罗斯巴赫会战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -803,9 +782,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>俄罗斯帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E7%89%B9%E6%8B%89%E5%B0%94%E6%9D%BE%E5%BE%B7</t>
   </si>
   <si>
@@ -827,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%83%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>驃騎兵</t>
+    <t>骠骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -863,9 +839,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%85%8B%E9%BD%90%E6%88%98%E5%BD%B9</t>
   </si>
   <si>
-    <t>霍克齐战役</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
@@ -875,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E9%9C%8D%E5%85%8B</t>
   </si>
   <si>
-    <t>愛德華·霍克</t>
+    <t>爱德华·霍克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E5%B8%86%E6%88%98%E5%88%97%E8%88%B0</t>
@@ -899,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%B2%83%E8%8C%B2%E7%A7%91</t>
   </si>
   <si>
-    <t>克沃茲科</t>
+    <t>克沃兹科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%9E%E5%8B%92</t>
@@ -911,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%B6%AD%E5%BE%B7%E5%B0%BC%E5%AF%9F</t>
   </si>
   <si>
-    <t>希維德尼察</t>
+    <t>希维德尼察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%C2%B7%E5%BD%BC%E5%BE%97%E7%BD%97%E8%8A%99%E5%A8%9C%C2%B7%E7%BD%97%E6%9B%BC%E8%AF%BA%E5%A8%83</t>
@@ -923,31 +896,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1%E7%8E%8B%E5%AE%A4%E7%9A%84%E5%A5%87%E8%B9%9F</t>
   </si>
   <si>
-    <t>勃蘭登堡王室的奇蹟</t>
+    <t>勃兰登堡王室的奇蹟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%B4%AF%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>德累斯頓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%BB%A3%E6%AF%94%E7%89%B9%E4%BC%AF%E7%88%B5%E7%B4%84%E7%BF%B0%C2%B7%E6%96%AF%E5%9C%96%E7%88%BE%E7%89%B9</t>
   </si>
   <si>
-    <t>第三代比特伯爵約翰·斯圖爾特</t>
+    <t>第三代比特伯爵约翰·斯图尔特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E5%8D%A1%E6%8D%B7%E7%90%B3%E5%A8%9C%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>葉卡捷琳娜二世</t>
+    <t>叶卡捷琳娜二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>魁北克戰役</t>
+    <t>魁北克战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%AF%BA%E5%8D%A1%E5%B2%9B</t>
@@ -959,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%A0%93%E8%A7%92</t>
   </si>
   <si>
-    <t>布雷頓角</t>
+    <t>布雷顿角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%A0%A1</t>
@@ -977,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E9%AD%AF%E7%B7%AC%E9%87%87%E5%A4%AB</t>
   </si>
   <si>
-    <t>彼得·魯緬采夫</t>
+    <t>彼得·鲁缅采夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E8%B4%9D%E6%A0%BC</t>
@@ -989,25 +959,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%B8%8D%E8%90%BD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>日不落帝國</t>
+    <t>日不落帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E5%8D%A1%E6%8D%B7%E7%90%B3%E5%A8%9C%E5%A4%A7%E5%B8%9D</t>
   </si>
   <si>
-    <t>葉卡捷琳娜大帝</t>
+    <t>叶卡捷琳娜大帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%88%86%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>瓜分波蘭</t>
+    <t>瓜分波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E7%BC%85%E9%87%87%E5%A4%AB</t>
@@ -1019,37 +989,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西里西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%BC%B7</t>
   </si>
   <si>
-    <t>列強</t>
+    <t>列强</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%AD%89%E5%BC%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>中等強國</t>
+    <t>中等强国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E8%A5%BF%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>普拉西戰役</t>
+    <t>普拉西战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界戰爭列表</t>
+    <t>世界战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1061,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2240,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>18</v>
@@ -2299,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2328,10 +2295,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2357,10 +2324,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2386,10 +2353,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2415,10 +2382,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2444,10 +2411,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2473,10 +2440,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2502,10 +2469,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2531,10 +2498,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2560,10 +2527,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2589,10 +2556,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2618,10 +2585,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2647,10 +2614,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2676,10 +2643,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2705,10 +2672,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2734,10 +2701,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2763,10 +2730,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2792,10 +2759,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2821,10 +2788,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -2850,10 +2817,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2879,10 +2846,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>38</v>
@@ -2908,10 +2875,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2937,10 +2904,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2966,10 +2933,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2995,10 +2962,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3024,10 +2991,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3053,10 +3020,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>20</v>
@@ -3082,10 +3049,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3111,10 +3078,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3140,10 +3107,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3169,10 +3136,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3227,10 +3194,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>7</v>
@@ -3256,10 +3223,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>7</v>
@@ -3314,10 +3281,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3343,10 +3310,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3372,10 +3339,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3401,10 +3368,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>10</v>
@@ -3488,10 +3455,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3517,10 +3484,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3546,10 +3513,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3575,10 +3542,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3633,10 +3600,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3662,10 +3629,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3691,10 +3658,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3720,10 +3687,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3749,10 +3716,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3778,10 +3745,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3807,10 +3774,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3836,10 +3803,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3865,10 +3832,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3894,10 +3861,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>7</v>
@@ -3923,10 +3890,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3952,10 +3919,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3981,10 +3948,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4010,10 +3977,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F90" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4039,10 +4006,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4068,10 +4035,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4097,10 +4064,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4126,10 +4093,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4155,10 +4122,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4184,10 +4151,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4213,10 +4180,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4242,10 +4209,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>8</v>
@@ -4271,10 +4238,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>14</v>
@@ -4300,10 +4267,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4329,10 +4296,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>7</v>
@@ -4358,10 +4325,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4387,10 +4354,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4416,10 +4383,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4445,10 +4412,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4474,10 +4441,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4503,10 +4470,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4532,10 +4499,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="G108" t="n">
         <v>14</v>
@@ -4561,10 +4528,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
         <v>7</v>
@@ -4590,10 +4557,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -4619,10 +4586,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4648,10 +4615,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4677,10 +4644,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4706,10 +4673,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4735,10 +4702,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4764,10 +4731,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4793,10 +4760,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -4822,10 +4789,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4851,10 +4818,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4880,10 +4847,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F120" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4909,10 +4876,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G121" t="n">
         <v>5</v>
@@ -4938,10 +4905,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F122" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -4967,10 +4934,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4996,10 +4963,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F124" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5025,10 +4992,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5054,10 +5021,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>62</v>
+      </c>
+      <c r="F126" t="s">
         <v>63</v>
-      </c>
-      <c r="F126" t="s">
-        <v>64</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5083,10 +5050,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G127" t="n">
         <v>6</v>
@@ -5112,10 +5079,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G128" t="n">
         <v>10</v>
@@ -5141,10 +5108,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5170,10 +5137,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5199,10 +5166,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F131" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5228,10 +5195,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G132" t="n">
         <v>8</v>
@@ -5257,10 +5224,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5286,10 +5253,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F134" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -5315,10 +5282,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>68</v>
+      </c>
+      <c r="F135" t="s">
         <v>69</v>
-      </c>
-      <c r="F135" t="s">
-        <v>70</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5344,10 +5311,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F136" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -5373,10 +5340,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5402,10 +5369,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5431,10 +5398,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>72</v>
+      </c>
+      <c r="F139" t="s">
         <v>73</v>
-      </c>
-      <c r="F139" t="s">
-        <v>74</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5460,10 +5427,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F140" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5489,10 +5456,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F141" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G141" t="n">
         <v>13</v>
@@ -5518,10 +5485,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5547,10 +5514,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F143" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5576,10 +5543,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F144" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5605,10 +5572,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F145" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5634,10 +5601,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>72</v>
+      </c>
+      <c r="F146" t="s">
         <v>73</v>
-      </c>
-      <c r="F146" t="s">
-        <v>74</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -5663,10 +5630,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F147" t="s">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="G147" t="n">
         <v>7</v>
@@ -5692,10 +5659,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F148" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5721,10 +5688,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F149" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5750,10 +5717,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F150" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5779,10 +5746,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F151" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -5808,10 +5775,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F152" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -5837,10 +5804,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F153" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G153" t="n">
         <v>5</v>
@@ -5866,10 +5833,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F154" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -5895,10 +5862,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F155" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -5924,10 +5891,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F156" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G156" t="n">
         <v>7</v>
@@ -5953,10 +5920,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F157" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5982,10 +5949,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F158" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6011,10 +5978,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F159" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6040,10 +6007,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s">
         <v>75</v>
-      </c>
-      <c r="F160" t="s">
-        <v>76</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6069,10 +6036,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F161" t="s">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6098,10 +6065,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F162" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G162" t="n">
         <v>58</v>
@@ -6127,10 +6094,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>78</v>
+      </c>
+      <c r="F163" t="s">
         <v>79</v>
-      </c>
-      <c r="F163" t="s">
-        <v>80</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6156,10 +6123,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>74</v>
+      </c>
+      <c r="F164" t="s">
         <v>75</v>
-      </c>
-      <c r="F164" t="s">
-        <v>76</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6185,10 +6152,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F165" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6214,10 +6181,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>80</v>
+      </c>
+      <c r="F166" t="s">
         <v>81</v>
-      </c>
-      <c r="F166" t="s">
-        <v>82</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6243,10 +6210,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>82</v>
+      </c>
+      <c r="F167" t="s">
         <v>83</v>
-      </c>
-      <c r="F167" t="s">
-        <v>84</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6272,10 +6239,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F168" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6301,10 +6268,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F169" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6330,10 +6297,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F170" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6359,10 +6326,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F171" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6388,10 +6355,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F172" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6417,10 +6384,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F173" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6446,10 +6413,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F174" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6475,10 +6442,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F175" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6504,10 +6471,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F176" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6533,10 +6500,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F177" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6562,10 +6529,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F178" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6591,10 +6558,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F179" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G179" t="n">
         <v>7</v>
@@ -6620,10 +6587,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F180" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6649,10 +6616,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F181" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6678,10 +6645,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F182" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6707,10 +6674,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F183" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -6736,10 +6703,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F184" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -6765,10 +6732,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F185" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6794,10 +6761,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F186" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6823,10 +6790,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F187" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6852,10 +6819,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F188" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6881,10 +6848,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F189" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6910,10 +6877,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F190" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6939,10 +6906,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F191" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -6968,10 +6935,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F192" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -6997,10 +6964,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F193" t="s">
-        <v>334</v>
+        <v>220</v>
       </c>
       <c r="G193" t="n">
         <v>8</v>
@@ -7026,10 +6993,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F194" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -7055,10 +7022,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F195" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7084,10 +7051,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F196" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7113,10 +7080,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F197" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7142,10 +7109,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F198" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -7171,10 +7138,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F199" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7200,10 +7167,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F200" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
